--- a/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,13</t>
+          <t>1,69; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,57</t>
+          <t>2,2; 5,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,36</t>
+          <t>5,0; 10,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,18</t>
+          <t>0,38; 3,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,95</t>
+          <t>0,93; 4,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 9,42</t>
+          <t>3,76; 9,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,06</t>
+          <t>1,42; 3,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,49</t>
+          <t>1,87; 4,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,79</t>
+          <t>5,08; 8,96</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,15</t>
+          <t>0,81; 4,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,41</t>
+          <t>2,12; 6,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,51</t>
+          <t>5,72; 11,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,47</t>
+          <t>1,57; 5,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,32</t>
+          <t>0,82; 4,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,12</t>
+          <t>4,27; 9,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,03</t>
+          <t>1,5; 4,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,65</t>
+          <t>1,85; 4,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,71</t>
+          <t>5,74; 9,51</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,12</t>
+          <t>1,83; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,38</t>
+          <t>3,73; 7,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,84</t>
+          <t>4,95; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,1</t>
+          <t>1,78; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,65</t>
+          <t>1,53; 5,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,65</t>
+          <t>2,75; 10,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,78</t>
+          <t>2,09; 4,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,31</t>
+          <t>3,34; 6,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,73</t>
+          <t>5,04; 8,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,68</t>
+          <t>2,46; 4,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,68</t>
+          <t>2,48; 4,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,31</t>
+          <t>6,21; 9,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,48</t>
+          <t>1,31; 3,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,78</t>
+          <t>2,07; 4,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,43</t>
+          <t>6,24; 10,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,85</t>
+          <t>2,28; 3,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,21</t>
+          <t>2,57; 4,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,19</t>
+          <t>6,74; 9,16</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,11</t>
+          <t>4,45; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,58</t>
+          <t>3,54; 7,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,48</t>
+          <t>5,15; 9,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,8</t>
+          <t>0,92; 3,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,42</t>
+          <t>0,64; 2,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,86</t>
+          <t>4,14; 7,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,52</t>
+          <t>2,74; 5,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,99</t>
+          <t>2,11; 4,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,98</t>
+          <t>5,27; 7,78</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,84</t>
+          <t>2,27; 6,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,24</t>
+          <t>2,17; 6,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,97</t>
+          <t>4,17; 10,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,52</t>
+          <t>1,06; 2,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,62</t>
+          <t>1,52; 3,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,75</t>
+          <t>3,27; 5,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,04</t>
+          <t>1,53; 3,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,83</t>
+          <t>1,94; 3,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,11</t>
+          <t>3,81; 6,07</t>
         </is>
       </c>
     </row>
@@ -1350,42 +1351,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,94</t>
+          <t>3,47; 4,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,45</t>
+          <t>6,56; 8,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,68</t>
+          <t>1,66; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,9</t>
+          <t>1,85; 2,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,87</t>
+          <t>5,27; 6,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,32</t>
+          <t>2,46; 3,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,68</t>
+          <t>2,81; 3,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 7,36</t>
+          <t>6,11; 7,32</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, alimentos como huevos, queso, jamón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14827</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15573</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31484</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20729</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19223</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22609</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>52212</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8002; 25230</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9602; 24997</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21448; 42931</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1165; 10586</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2922; 15558</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13034; 32507</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11074; 29860</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14021; 33192</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39410; 69506</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6809</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16217</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31108</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11313</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25074</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18122</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22888</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56182</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2967; 14847</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8839; 27626</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21569; 43018</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5812; 20378</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2778; 14016</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15844; 35487</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11042; 30317</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13943; 35029</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>42977; 71189</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16952</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33179</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36874</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8118</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23410</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41297</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46430</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9892; 26196</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23378; 44848</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25784; 50694</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2990; 13538</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3974; 15394</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4561; 17460</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14836; 35046</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29673; 54073</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34611; 60968</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43046</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39335</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87909</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15642</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24852</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67442</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58687</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64186</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>155351</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30442; 57946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28736; 52466</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71375; 106971</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9334; 25594</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>15846; 36574</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51558; 83636</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44481; 75101</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49446; 80813</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>133104; 180832</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23985</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27478</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43949</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11005</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9224</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42992</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34990</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36702</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86942</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15610; 35743</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18027; 38322</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31886; 57786</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5235; 20766</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4818; 17357</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30582; 56597</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25112; 49636</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26786; 51222</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71563; 105561</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11439</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19504</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>21844</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>47431</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34218</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>38222</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>66935</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6759; 20253</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5781; 18328</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11980; 28965</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13264; 33459</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16892; 41381</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35264; 62695</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23603; 46745</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>26694; 53756</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>52026; 82944</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>117992</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>143221</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>250828</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>82684</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>213224</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>188650</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>225905</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>464052</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>98136; 142157</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>118635; 167167</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>221943; 285569</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>55908; 89228</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>65431; 103266</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>185936; 243721</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>163097; 218701</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>195395; 257682</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>422334; 505584</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
